--- a/notebook/data/crime.xlsx
+++ b/notebook/data/crime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case-management\notebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA7B334-CB4D-4DDE-A840-35151EFD71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA152A-9BE8-49AE-B923-BB9FA46F2CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C792BAFA-4C42-4088-B14F-A43F62C05C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C792BAFA-4C42-4088-B14F-A43F62C05C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>People affected</t>
   </si>
   <si>
-    <t>Componseation</t>
-  </si>
-  <si>
     <t>Time period</t>
   </si>
   <si>
@@ -460,6 +457,9 @@
   </si>
   <si>
     <t>Dr Susheel Kumar provided fake medical kits to many of the patients , and he was sued</t>
+  </si>
+  <si>
+    <t>Compensation</t>
   </si>
 </sst>
 </file>
@@ -897,20 +897,20 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G102" sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="51.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" customWidth="1"/>
     <col min="3" max="3" width="168" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="34.54296875" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -921,24 +921,24 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>9</v>
@@ -953,15 +953,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -976,15 +976,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -999,15 +999,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1022,15 +1022,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>13000000</v>
@@ -1045,15 +1045,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -1068,15 +1068,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -1091,15 +1091,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -1114,15 +1114,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1137,15 +1137,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -1160,15 +1160,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
         <v>1200000</v>
@@ -1183,15 +1183,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>16</v>
@@ -1206,15 +1206,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1229,15 +1229,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>5000000</v>
@@ -1252,15 +1252,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>4000000</v>
@@ -1275,15 +1275,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
         <v>7000000</v>
@@ -1298,15 +1298,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D18" s="2">
         <v>2000000</v>
@@ -1321,15 +1321,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>1000000</v>
@@ -1344,15 +1344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>3000000</v>
@@ -1367,15 +1367,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>4000000</v>
@@ -1390,15 +1390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>5000000</v>
@@ -1413,15 +1413,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>13000000</v>
@@ -1436,15 +1436,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>18000000</v>
@@ -1459,15 +1459,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>4000000</v>
@@ -1482,15 +1482,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>11000000</v>
@@ -1502,15 +1502,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D27" s="2">
         <v>1000000</v>
@@ -1525,15 +1525,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D28" s="2">
         <v>1000000</v>
@@ -1548,15 +1548,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D29" s="2">
         <v>1000000</v>
@@ -1571,15 +1571,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D30" s="2">
         <v>10000000</v>
@@ -1594,15 +1594,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2">
         <v>8000000</v>
@@ -1617,15 +1617,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D32" s="2">
         <v>2000000</v>
@@ -1640,15 +1640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2">
         <v>9000000</v>
@@ -1663,15 +1663,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D34" s="2">
         <v>3000000</v>
@@ -1686,15 +1686,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2">
         <v>11000000</v>
@@ -1709,15 +1709,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2">
         <v>12000000</v>
@@ -1732,15 +1732,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
         <v>23000000</v>
@@ -1755,15 +1755,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D38" s="2">
         <v>3000000</v>
@@ -1778,15 +1778,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2">
         <v>4000000</v>
@@ -1801,15 +1801,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2">
         <v>12000000</v>
@@ -1824,15 +1824,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2">
         <v>30000000</v>
@@ -1847,15 +1847,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D42" s="2">
         <v>2000000</v>
@@ -1870,15 +1870,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D43" s="2">
         <v>30000000</v>
@@ -1893,15 +1893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D44" s="2">
         <v>450000000</v>
@@ -1916,15 +1916,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D45" s="2">
         <v>4000000</v>
@@ -1939,15 +1939,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D46" s="2">
         <v>300000000</v>
@@ -1962,15 +1962,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>2000000</v>
@@ -1985,15 +1985,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="2">
         <v>5000000</v>
@@ -2008,15 +2008,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="2">
         <v>3000000</v>
@@ -2031,15 +2031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="2">
         <v>12</v>
@@ -2054,15 +2054,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D51" s="2">
         <v>12000000</v>
@@ -2077,15 +2077,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D52" s="2">
         <v>7000000</v>
@@ -2100,15 +2100,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D53" s="2">
         <v>3</v>
@@ -2123,15 +2123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="2">
         <v>11000000</v>
@@ -2146,15 +2146,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" s="2">
         <v>11000000</v>
@@ -2169,15 +2169,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="2">
         <v>10000000</v>
@@ -2192,15 +2192,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="2">
         <v>3000000</v>
@@ -2215,15 +2215,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="2">
         <v>13000000</v>
@@ -2238,15 +2238,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D59" s="2">
         <v>15000000</v>
@@ -2261,15 +2261,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="2">
         <v>8000000</v>
@@ -2284,15 +2284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
         <v>76</v>
-      </c>
-      <c r="C61" t="s">
-        <v>77</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
@@ -2307,15 +2307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
         <v>78</v>
-      </c>
-      <c r="C62" t="s">
-        <v>79</v>
       </c>
       <c r="D62" s="2">
         <v>9000000</v>
@@ -2330,15 +2330,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2">
         <v>2000000</v>
@@ -2353,15 +2353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2">
         <v>60000000</v>
@@ -2376,15 +2376,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
         <v>81</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
       </c>
       <c r="D65" s="2">
         <v>30000000</v>
@@ -2399,15 +2399,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="2">
         <v>2000000</v>
@@ -2422,15 +2422,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="2">
         <v>20000000</v>
@@ -2445,15 +2445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
         <v>85</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
       </c>
       <c r="D68" s="2">
         <v>50000000</v>
@@ -2468,15 +2468,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
         <v>87</v>
-      </c>
-      <c r="C69" t="s">
-        <v>88</v>
       </c>
       <c r="D69" s="2">
         <v>3000000</v>
@@ -2491,15 +2491,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
         <v>89</v>
-      </c>
-      <c r="C70" t="s">
-        <v>90</v>
       </c>
       <c r="D70" s="2">
         <v>4000000</v>
@@ -2514,15 +2514,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
         <v>91</v>
-      </c>
-      <c r="C71" t="s">
-        <v>92</v>
       </c>
       <c r="D71" s="2">
         <v>3000000</v>
@@ -2537,15 +2537,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D72" s="7">
         <v>3000000</v>
@@ -2560,15 +2560,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" s="8">
         <v>7000000</v>
@@ -2583,15 +2583,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="D74" s="8">
         <v>6000000</v>
@@ -2606,15 +2606,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" s="8">
         <v>3</v>
@@ -2629,15 +2629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
         <v>100</v>
-      </c>
-      <c r="C76" t="s">
-        <v>101</v>
       </c>
       <c r="D76" s="8">
         <v>12000000</v>
@@ -2652,15 +2652,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D77" s="8">
         <v>12000000</v>
@@ -2675,15 +2675,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D78" s="8">
         <v>3</v>
@@ -2698,15 +2698,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
         <v>104</v>
-      </c>
-      <c r="C79" t="s">
-        <v>105</v>
       </c>
       <c r="D79" s="8">
         <v>3</v>
@@ -2721,15 +2721,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="s">
         <v>106</v>
-      </c>
-      <c r="C80" t="s">
-        <v>107</v>
       </c>
       <c r="D80" s="8">
         <v>5000000</v>
@@ -2744,15 +2744,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="8">
         <v>300000</v>
@@ -2767,15 +2767,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D82" s="8">
         <v>5000000</v>
@@ -2790,15 +2790,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
         <v>110</v>
-      </c>
-      <c r="C83" t="s">
-        <v>111</v>
       </c>
       <c r="D83" s="8">
         <v>30000000</v>
@@ -2813,15 +2813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D84" s="8">
         <v>30000000</v>
@@ -2836,15 +2836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D85" s="8">
         <v>40000000</v>
@@ -2859,15 +2859,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" t="s">
         <v>114</v>
-      </c>
-      <c r="C86" t="s">
-        <v>115</v>
       </c>
       <c r="D86" s="8">
         <v>15</v>
@@ -2882,15 +2882,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D87" s="8">
         <v>400000</v>
@@ -2905,15 +2905,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
         <v>118</v>
-      </c>
-      <c r="C88" t="s">
-        <v>119</v>
       </c>
       <c r="D88" s="8">
         <v>1000000</v>
@@ -2928,15 +2928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="8">
         <v>3000000</v>
@@ -2951,15 +2951,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D90" s="8">
         <v>4000000</v>
@@ -2974,15 +2974,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
         <v>121</v>
-      </c>
-      <c r="C91" t="s">
-        <v>122</v>
       </c>
       <c r="D91" s="8">
         <v>34000000</v>
@@ -2997,15 +2997,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" t="s">
         <v>123</v>
-      </c>
-      <c r="C92" t="s">
-        <v>124</v>
       </c>
       <c r="D92" s="8">
         <v>40</v>
@@ -3020,15 +3020,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D93" s="8">
         <v>3000000</v>
@@ -3043,15 +3043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" t="s">
         <v>126</v>
-      </c>
-      <c r="C94" t="s">
-        <v>127</v>
       </c>
       <c r="D94" s="8">
         <v>9000000</v>
@@ -3066,15 +3066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" t="s">
         <v>128</v>
-      </c>
-      <c r="C95" t="s">
-        <v>129</v>
       </c>
       <c r="D95" s="8">
         <v>4000000</v>
@@ -3089,15 +3089,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="D96" s="8">
         <v>5</v>
@@ -3112,15 +3112,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D97" s="8">
         <v>5000000</v>
@@ -3135,15 +3135,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" t="s">
         <v>134</v>
-      </c>
-      <c r="C98" t="s">
-        <v>135</v>
       </c>
       <c r="D98" s="8">
         <v>32000000</v>
@@ -3158,15 +3158,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s">
         <v>136</v>
-      </c>
-      <c r="C99" t="s">
-        <v>137</v>
       </c>
       <c r="D99" s="8">
         <v>5000000</v>
@@ -3181,15 +3181,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" t="s">
         <v>138</v>
-      </c>
-      <c r="C100" t="s">
-        <v>139</v>
       </c>
       <c r="D100" s="8">
         <v>12000000</v>
@@ -3204,15 +3204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C101" t="s">
         <v>140</v>
-      </c>
-      <c r="C101" t="s">
-        <v>141</v>
       </c>
       <c r="D101" s="8">
         <v>27000000</v>

--- a/notebook/data/crime.xlsx
+++ b/notebook/data/crime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case-management\notebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA152A-9BE8-49AE-B923-BB9FA46F2CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0254B0-8C20-44F7-9176-522E9A66A89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C792BAFA-4C42-4088-B14F-A43F62C05C92}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
   <si>
     <t>Case type</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Compensation</t>
+  </si>
+  <si>
+    <t>Days left</t>
   </si>
 </sst>
 </file>
@@ -894,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9747A9A-1EDB-4827-BEA1-C4FABDAAB0DC}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="52" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +913,7 @@
     <col min="6" max="6" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -929,8 +932,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -952,8 +958,12 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f ca="1">RANDBETWEEN(1,1000)</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -975,8 +985,12 @@
       <c r="G3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" ca="1" si="0">RANDBETWEEN(1,1000)</f>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -998,8 +1012,12 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1021,8 +1039,12 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1044,8 +1066,12 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1067,8 +1093,12 @@
       <c r="G7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1090,8 +1120,12 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1113,8 +1147,12 @@
       <c r="G9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1136,8 +1174,12 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1159,8 +1201,12 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1182,8 +1228,12 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1205,8 +1255,12 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1228,8 +1282,12 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1251,8 +1309,12 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1274,8 +1336,12 @@
       <c r="G16" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1297,8 +1363,12 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1320,8 +1390,12 @@
       <c r="G18" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1343,8 +1417,12 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1366,8 +1444,12 @@
       <c r="G20" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1389,8 +1471,12 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1412,8 +1498,12 @@
       <c r="G22" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1435,8 +1525,12 @@
       <c r="G23" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1458,8 +1552,12 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1481,8 +1579,12 @@
       <c r="G25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" ca="1" si="0"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1501,8 +1603,12 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" ca="1" si="0"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1524,8 +1630,12 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" ca="1" si="0"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1547,8 +1657,12 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" ca="1" si="0"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1570,8 +1684,12 @@
       <c r="G29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" ca="1" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1593,8 +1711,12 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" ca="1" si="0"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1616,8 +1738,12 @@
       <c r="G31" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" ca="1" si="0"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1639,8 +1765,12 @@
       <c r="G32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" ca="1" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1662,8 +1792,12 @@
       <c r="G33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1685,8 +1819,12 @@
       <c r="G34" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f t="shared" ca="1" si="0"/>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1708,8 +1846,12 @@
       <c r="G35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f t="shared" ca="1" si="0"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1731,8 +1873,12 @@
       <c r="G36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f t="shared" ca="1" si="0"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1754,8 +1900,12 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f t="shared" ca="1" si="0"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1777,8 +1927,12 @@
       <c r="G38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f t="shared" ca="1" si="0"/>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1800,8 +1954,12 @@
       <c r="G39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f t="shared" ca="1" si="0"/>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1823,8 +1981,12 @@
       <c r="G40" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f t="shared" ca="1" si="0"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1846,8 +2008,12 @@
       <c r="G41" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <f t="shared" ca="1" si="0"/>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1869,8 +2035,12 @@
       <c r="G42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <f t="shared" ca="1" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1892,8 +2062,12 @@
       <c r="G43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <f t="shared" ca="1" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1915,8 +2089,12 @@
       <c r="G44" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <f t="shared" ca="1" si="0"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1938,8 +2116,12 @@
       <c r="G45" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <f t="shared" ca="1" si="0"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1961,8 +2143,12 @@
       <c r="G46" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <f t="shared" ca="1" si="0"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1984,8 +2170,12 @@
       <c r="G47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <f t="shared" ca="1" si="0"/>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2007,8 +2197,12 @@
       <c r="G48" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f t="shared" ca="1" si="0"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2030,8 +2224,12 @@
       <c r="G49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f t="shared" ca="1" si="0"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2053,8 +2251,12 @@
       <c r="G50" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <f t="shared" ca="1" si="0"/>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2076,8 +2278,12 @@
       <c r="G51" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f t="shared" ca="1" si="0"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2099,8 +2305,12 @@
       <c r="G52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <f t="shared" ca="1" si="0"/>
+        <v>879</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2122,8 +2332,12 @@
       <c r="G53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <f t="shared" ca="1" si="0"/>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2145,8 +2359,12 @@
       <c r="G54" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f t="shared" ca="1" si="0"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2168,8 +2386,12 @@
       <c r="G55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <f t="shared" ca="1" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2191,8 +2413,12 @@
       <c r="G56" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <f t="shared" ca="1" si="0"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2214,8 +2440,12 @@
       <c r="G57" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <f t="shared" ca="1" si="0"/>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2237,8 +2467,12 @@
       <c r="G58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <f t="shared" ca="1" si="0"/>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2260,8 +2494,12 @@
       <c r="G59" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <f t="shared" ca="1" si="0"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2283,8 +2521,12 @@
       <c r="G60" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <f t="shared" ca="1" si="0"/>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2306,8 +2548,12 @@
       <c r="G61" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <f t="shared" ca="1" si="0"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2329,8 +2575,12 @@
       <c r="G62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <f t="shared" ca="1" si="0"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2352,8 +2602,12 @@
       <c r="G63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <f t="shared" ca="1" si="0"/>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2375,8 +2629,12 @@
       <c r="G64" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <f t="shared" ca="1" si="0"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2398,8 +2656,12 @@
       <c r="G65" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2421,8 +2683,12 @@
       <c r="G66" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <f t="shared" ca="1" si="0"/>
+        <v>933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2444,8 +2710,12 @@
       <c r="G67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <f t="shared" ref="H67:H101" ca="1" si="1">RANDBETWEEN(1,1000)</f>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2467,8 +2737,12 @@
       <c r="G68" s="4">
         <v>52</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <f t="shared" ca="1" si="1"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2490,8 +2764,12 @@
       <c r="G69" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <f t="shared" ca="1" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2513,8 +2791,12 @@
       <c r="G70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <f t="shared" ca="1" si="1"/>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2536,8 +2818,12 @@
       <c r="G71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H71">
+        <f t="shared" ca="1" si="1"/>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2559,8 +2845,12 @@
       <c r="G72" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <f t="shared" ca="1" si="1"/>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2582,8 +2872,12 @@
       <c r="G73" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2605,8 +2899,12 @@
       <c r="G74" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -2628,8 +2926,12 @@
       <c r="G75" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <f t="shared" ca="1" si="1"/>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2651,8 +2953,12 @@
       <c r="G76" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <f t="shared" ca="1" si="1"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2674,8 +2980,12 @@
       <c r="G77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <f t="shared" ca="1" si="1"/>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2697,8 +3007,12 @@
       <c r="G78" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <f t="shared" ca="1" si="1"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2720,8 +3034,12 @@
       <c r="G79" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <f t="shared" ca="1" si="1"/>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2743,8 +3061,12 @@
       <c r="G80" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <f t="shared" ca="1" si="1"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2766,8 +3088,12 @@
       <c r="G81" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H81">
+        <f t="shared" ca="1" si="1"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2789,8 +3115,12 @@
       <c r="G82" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -2812,8 +3142,12 @@
       <c r="G83" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <f t="shared" ca="1" si="1"/>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -2835,8 +3169,12 @@
       <c r="G84" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <f t="shared" ca="1" si="1"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -2858,8 +3196,12 @@
       <c r="G85" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -2881,8 +3223,12 @@
       <c r="G86" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="H86">
+        <f t="shared" ca="1" si="1"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2904,8 +3250,12 @@
       <c r="G87" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <f t="shared" ca="1" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -2927,8 +3277,12 @@
       <c r="G88" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <f t="shared" ca="1" si="1"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2950,8 +3304,12 @@
       <c r="G89" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <f t="shared" ca="1" si="1"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2973,8 +3331,12 @@
       <c r="G90" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <f t="shared" ca="1" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -2996,8 +3358,12 @@
       <c r="G91" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <f t="shared" ca="1" si="1"/>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3019,8 +3385,12 @@
       <c r="G92" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <f t="shared" ca="1" si="1"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3042,8 +3412,12 @@
       <c r="G93" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <f t="shared" ca="1" si="1"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3065,8 +3439,12 @@
       <c r="G94" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <f t="shared" ca="1" si="1"/>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3088,8 +3466,12 @@
       <c r="G95" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="H95">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3111,8 +3493,12 @@
       <c r="G96" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <f t="shared" ca="1" si="1"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3134,8 +3520,12 @@
       <c r="G97" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3157,8 +3547,12 @@
       <c r="G98" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <f t="shared" ca="1" si="1"/>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3180,8 +3574,12 @@
       <c r="G99" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <f t="shared" ca="1" si="1"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3203,8 +3601,12 @@
       <c r="G100" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <f t="shared" ca="1" si="1"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -3225,6 +3627,10 @@
       </c>
       <c r="G101" s="4">
         <v>1</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="1"/>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
